--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H2">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I2">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J2">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N2">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q2">
-        <v>23907.65187032275</v>
+        <v>124.216862057814</v>
       </c>
       <c r="R2">
-        <v>215168.8668329048</v>
+        <v>1117.951758520326</v>
       </c>
       <c r="S2">
-        <v>0.3138656485569761</v>
+        <v>0.02195998609652589</v>
       </c>
       <c r="T2">
-        <v>0.3138656485569761</v>
+        <v>0.0219599860965259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H3">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I3">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J3">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
         <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q3">
-        <v>16723.29329774342</v>
+        <v>114.738904315278</v>
       </c>
       <c r="R3">
-        <v>150509.6396796908</v>
+        <v>1032.650138837502</v>
       </c>
       <c r="S3">
-        <v>0.2195475877503611</v>
+        <v>0.02028440182558626</v>
       </c>
       <c r="T3">
-        <v>0.2195475877503611</v>
+        <v>0.02028440182558627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H4">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I4">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J4">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N4">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q4">
-        <v>7320.236082368557</v>
+        <v>55.354794700416</v>
       </c>
       <c r="R4">
-        <v>65882.12474131702</v>
+        <v>498.193152303744</v>
       </c>
       <c r="S4">
-        <v>0.09610189482618429</v>
+        <v>0.009786034696572922</v>
       </c>
       <c r="T4">
-        <v>0.09610189482618427</v>
+        <v>0.009786034696572923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H5">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I5">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J5">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N5">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q5">
-        <v>17549.3122078782</v>
+        <v>70.13101867966199</v>
       </c>
       <c r="R5">
-        <v>157943.8098709038</v>
+        <v>631.179168116958</v>
       </c>
       <c r="S5">
-        <v>0.230391771125459</v>
+        <v>0.01239828610727407</v>
       </c>
       <c r="T5">
-        <v>0.2303917711254589</v>
+        <v>0.01239828610727407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N6">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q6">
-        <v>30.81103529892023</v>
+        <v>23.33248689348323</v>
       </c>
       <c r="R6">
-        <v>277.2993176902821</v>
+        <v>209.992382041349</v>
       </c>
       <c r="S6">
-        <v>0.0004044949972193538</v>
+        <v>0.004124891575024554</v>
       </c>
       <c r="T6">
-        <v>0.0004044949972193538</v>
+        <v>0.004124891575024555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.478947</v>
       </c>
       <c r="I7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
         <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q7">
         <v>21.552178478497</v>
@@ -883,10 +883,10 @@
         <v>193.969606306473</v>
       </c>
       <c r="S7">
-        <v>0.0002829424032381078</v>
+        <v>0.003810155335572382</v>
       </c>
       <c r="T7">
-        <v>0.0002829424032381078</v>
+        <v>0.003810155335572384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.478947</v>
       </c>
       <c r="I8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N8">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q8">
-        <v>9.433969239374001</v>
+        <v>10.39766260749511</v>
       </c>
       <c r="R8">
-        <v>84.905723154366</v>
+        <v>93.57896346745601</v>
       </c>
       <c r="S8">
-        <v>0.0001238515137263754</v>
+        <v>0.001838176576950458</v>
       </c>
       <c r="T8">
-        <v>0.0001238515137263754</v>
+        <v>0.001838176576950459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.478947</v>
       </c>
       <c r="I9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N9">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q9">
-        <v>22.61671204021123</v>
+        <v>13.17317992953522</v>
       </c>
       <c r="R9">
-        <v>203.550408361901</v>
+        <v>118.558619365817</v>
       </c>
       <c r="S9">
-        <v>0.0002969178667662872</v>
+        <v>0.002328853291793726</v>
       </c>
       <c r="T9">
-        <v>0.0002969178667662871</v>
+        <v>0.002328853291793727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.419061</v>
       </c>
       <c r="I10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N10">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q10">
-        <v>8.730335342240666</v>
+        <v>6.611281736309668</v>
       </c>
       <c r="R10">
-        <v>78.57301808016601</v>
+        <v>59.50153562678701</v>
       </c>
       <c r="S10">
-        <v>0.0001146140314897962</v>
+        <v>0.001168791841980385</v>
       </c>
       <c r="T10">
-        <v>0.0001146140314897962</v>
+        <v>0.001168791841980385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.419061</v>
       </c>
       <c r="I11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N11">
         <v>131.153859</v>
       </c>
       <c r="O11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q11">
-        <v>6.106829700710998</v>
+        <v>6.106829700711001</v>
       </c>
       <c r="R11">
-        <v>54.96146730639899</v>
+        <v>54.96146730639901</v>
       </c>
       <c r="S11">
-        <v>8.017199158818042E-05</v>
+        <v>0.001079611037501883</v>
       </c>
       <c r="T11">
-        <v>8.017199158818042E-05</v>
+        <v>0.001079611037501884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.419061</v>
       </c>
       <c r="I12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N12">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q12">
-        <v>2.673123907362</v>
+        <v>2.946187314325333</v>
       </c>
       <c r="R12">
-        <v>24.058115166258</v>
+        <v>26.515685828928</v>
       </c>
       <c r="S12">
-        <v>3.509344093715907E-05</v>
+        <v>0.0005208490328006588</v>
       </c>
       <c r="T12">
-        <v>3.509344093715907E-05</v>
+        <v>0.0005208490328006589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.419061</v>
       </c>
       <c r="I13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N13">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q13">
-        <v>6.408466269773666</v>
+        <v>3.732632713985666</v>
       </c>
       <c r="R13">
-        <v>57.67619642796301</v>
+        <v>33.593694425871</v>
       </c>
       <c r="S13">
-        <v>8.413195210169602E-05</v>
+        <v>0.0006598827336695437</v>
       </c>
       <c r="T13">
-        <v>8.413195210169602E-05</v>
+        <v>0.0006598827336695439</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H14">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N14">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q14">
-        <v>3855.411677681596</v>
+        <v>1773.813164133543</v>
       </c>
       <c r="R14">
-        <v>34698.70509913436</v>
+        <v>15964.31847720189</v>
       </c>
       <c r="S14">
-        <v>0.05061481124257886</v>
+        <v>0.3135879604177848</v>
       </c>
       <c r="T14">
-        <v>0.05061481124257885</v>
+        <v>0.3135879604177848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H15">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N15">
         <v>131.153859</v>
       </c>
       <c r="O15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q15">
-        <v>2696.842860985826</v>
+        <v>1638.468204244064</v>
       </c>
       <c r="R15">
-        <v>24271.58574887244</v>
+        <v>14746.21383819658</v>
       </c>
       <c r="S15">
-        <v>0.03540482930782027</v>
+        <v>0.2896606659412547</v>
       </c>
       <c r="T15">
-        <v>0.03540482930782027</v>
+        <v>0.2896606659412548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H16">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N16">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q16">
-        <v>1180.480786169692</v>
+        <v>790.4648524433635</v>
       </c>
       <c r="R16">
-        <v>10624.32707552723</v>
+        <v>7114.183671990271</v>
       </c>
       <c r="S16">
-        <v>0.01549764776440161</v>
+        <v>0.1397442897999587</v>
       </c>
       <c r="T16">
-        <v>0.01549764776440161</v>
+        <v>0.1397442897999587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H17">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N17">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q17">
-        <v>2830.048872575474</v>
+        <v>1001.468899529767</v>
       </c>
       <c r="R17">
-        <v>25470.43985317926</v>
+        <v>9013.220095767903</v>
       </c>
       <c r="S17">
-        <v>0.03715359122915189</v>
+        <v>0.177047163689749</v>
       </c>
       <c r="T17">
-        <v>0.03715359122915188</v>
+        <v>0.177047163689749</v>
       </c>
     </row>
   </sheetData>
